--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WindowsProgramming\MyShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tai_lieu\CODE\Windows\Đồ án 1\MyShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF412D-89AC-4340-9B74-C7BF80BDDD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613F77AA-CE8E-45D6-A39B-928516E520B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2742,6 +2742,9 @@
       </c>
       <c r="B33" t="s">
         <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
       </c>
       <c r="D33">
         <v>1997</v>
